--- a/PI-PROG/JLC-BOM-TOP.xlsx
+++ b/PI-PROG/JLC-BOM-TOP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Comment</t>
   </si>
@@ -108,12 +108,6 @@
     <t>AP7361C-18SP-13</t>
   </si>
   <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>AP7361C-33SP-13</t>
-  </si>
-  <si>
     <t>1473005-4</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>SO8-EP</t>
   </si>
   <si>
-    <t>R7</t>
-  </si>
-  <si>
     <t>R5,R6,R9,R10,R14,R15,R17</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
     <t>C460395</t>
   </si>
   <si>
-    <t>C4943338</t>
-  </si>
-  <si>
     <t>C2837822</t>
   </si>
   <si>
@@ -199,6 +187,21 @@
   </si>
   <si>
     <t>LED BLUE MLD12BN1WT86</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>AP7361C-33E-13</t>
+  </si>
+  <si>
+    <t>SOT-223</t>
+  </si>
+  <si>
+    <t>C500795</t>
   </si>
 </sst>
 </file>
@@ -650,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A19" sqref="A18:A19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -678,7 +681,7 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -687,12 +690,12 @@
         <v>1206</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -706,7 +709,7 @@
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -715,7 +718,7 @@
         <v>1210</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -726,29 +729,29 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -757,7 +760,7 @@
         <v>603</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -768,15 +771,15 @@
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -785,40 +788,40 @@
         <v>603</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6">
         <v>603</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C11" s="6">
         <v>603</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -827,12 +830,12 @@
         <v>603</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -841,7 +844,7 @@
         <v>603</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -852,24 +855,24 @@
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
